--- a/xls/dem2020simall.xlsx
+++ b/xls/dem2020simall.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -458,7 +456,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +517,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -595,12 +601,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -652,45 +657,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -698,8 +666,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -719,9 +688,6 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -773,9 +739,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -808,12 +771,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -836,13 +793,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="7" builtinId="22"/>
     <cellStyle name="Explanatory Text" xfId="5" builtinId="53"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Input" xfId="4" builtinId="20"/>
@@ -1152,7 +1119,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,61 +1129,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="44" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1224,10 +1191,10 @@
       <c r="A2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1276,25 +1243,25 @@
       <c r="S2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="45" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1303,19 +1270,19 @@
       <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>24</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N3" s="4" t="s">
@@ -1324,25 +1291,25 @@
       <c r="O3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="46" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1351,14 +1318,14 @@
       <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>36</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -1367,7 +1334,7 @@
       <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>38</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -1376,44 +1343,44 @@
       <c r="M4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="23" t="s">
         <v>42</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="39" t="s">
+      <c r="S4" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="18" t="s">
+      <c r="T4" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="45" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="8" t="s">
         <v>47</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -1422,7 +1389,7 @@
       <c r="I5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>50</v>
       </c>
       <c r="K5" s="6" t="s">
@@ -1431,34 +1398,34 @@
       <c r="L5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>53</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="39" t="s">
+      <c r="Q5" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="46" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="45" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1467,14 +1434,14 @@
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="16" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="15" t="s">
         <v>61</v>
       </c>
       <c r="I6" s="6" t="s">
@@ -1498,44 +1465,44 @@
       <c r="O6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="23" t="s">
         <v>68</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="T6" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="45" t="s">
         <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="22" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="21" t="s">
         <v>50</v>
       </c>
       <c r="J7" s="5" t="s">
@@ -1556,31 +1523,31 @@
       <c r="O7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="Q7" s="39" t="s">
+      <c r="Q7" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="41" t="s">
+      <c r="R7" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="S7" s="24" t="s">
+      <c r="S7" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="T7" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="45" t="s">
         <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="35" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -1592,14 +1559,14 @@
       <c r="G8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="12" t="s">
+      <c r="I8" s="7"/>
+      <c r="J8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>81</v>
       </c>
       <c r="L8" s="4" t="s">
@@ -1614,37 +1581,37 @@
       <c r="O8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="9" t="s">
         <v>84</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="R8" s="40" t="s">
+      <c r="R8" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="S8" s="40" t="s">
+      <c r="S8" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="T8" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="45" t="s">
         <v>89</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -1653,10 +1620,10 @@
       <c r="H9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="2" t="s">
         <v>90</v>
       </c>
@@ -1672,7 +1639,7 @@
       <c r="O9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="P9" s="16" t="s">
+      <c r="P9" s="15" t="s">
         <v>92</v>
       </c>
       <c r="Q9" s="5" t="s">
@@ -1681,25 +1648,25 @@
       <c r="R9" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="S9" s="39" t="s">
+      <c r="S9" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="T9" s="23" t="s">
+      <c r="T9" s="22" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="45" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -1711,13 +1678,13 @@
       <c r="H10" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>81</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="3" t="s">
         <v>96</v>
       </c>
@@ -1742,15 +1709,15 @@
       <c r="S10" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="T10" s="42" t="s">
+      <c r="T10" s="38" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="45" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1777,17 +1744,17 @@
       <c r="J11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="K11" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="L11" s="8"/>
+      <c r="L11" s="7"/>
       <c r="M11" s="2" t="s">
         <v>105</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="O11" s="17" t="s">
+      <c r="O11" s="16" t="s">
         <v>107</v>
       </c>
       <c r="P11" s="4" t="s">
@@ -1802,25 +1769,25 @@
       <c r="S11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T11" s="43" t="s">
+      <c r="T11" s="39" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="45" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1841,7 +1808,7 @@
       <c r="L12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="M12" s="8"/>
+      <c r="M12" s="7"/>
       <c r="N12" s="2" t="s">
         <v>111</v>
       </c>
@@ -1860,13 +1827,13 @@
       <c r="S12" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="T12" s="23" t="s">
+      <c r="T12" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="42"/>
+      <c r="B13" s="45" t="s">
         <v>115</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1875,7 +1842,7 @@
       <c r="D13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="23" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -1902,7 +1869,7 @@
       <c r="M13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="N13" s="8"/>
+      <c r="N13" s="7"/>
       <c r="O13" s="2" t="s">
         <v>70</v>
       </c>
@@ -1918,13 +1885,13 @@
       <c r="S13" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="T13" s="13" t="s">
+      <c r="T13" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="46" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="45" t="s">
         <v>119</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1933,10 +1900,10 @@
       <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="23" t="s">
         <v>55</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -1954,7 +1921,7 @@
       <c r="K14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="16" t="s">
         <v>107</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -1963,7 +1930,7 @@
       <c r="N14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="8"/>
+      <c r="O14" s="7"/>
       <c r="P14" s="2" t="s">
         <v>120</v>
       </c>
@@ -1976,37 +1943,37 @@
       <c r="S14" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="T14" s="23" t="s">
+      <c r="T14" s="22" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="46" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="45" t="s">
         <v>125</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="15" t="s">
         <v>92</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -2024,23 +1991,23 @@
       <c r="O15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="8"/>
+      <c r="P15" s="7"/>
       <c r="Q15" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="R15" s="16" t="s">
+      <c r="R15" s="15" t="s">
         <v>127</v>
       </c>
       <c r="S15" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="T15" s="44" t="s">
+      <c r="T15" s="40" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="46" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="45" t="s">
         <v>130</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2052,13 +2019,13 @@
       <c r="E16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="35" t="s">
         <v>19</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -2085,41 +2052,41 @@
       <c r="P16" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Q16" s="8"/>
+      <c r="Q16" s="7"/>
       <c r="R16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="T16" s="27" t="s">
+      <c r="T16" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="42"/>
+      <c r="B17" s="45" t="s">
         <v>132</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="40" t="s">
+      <c r="I17" s="36" t="s">
         <v>86</v>
       </c>
       <c r="J17" s="5" t="s">
@@ -2140,47 +2107,47 @@
       <c r="O17" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="16" t="s">
+      <c r="P17" s="15" t="s">
         <v>127</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R17" s="8"/>
+      <c r="R17" s="7"/>
       <c r="S17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="T17" s="44" t="s">
+      <c r="T17" s="40" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="46" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="45" t="s">
         <v>135</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>58</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="J18" s="39" t="s">
+      <c r="J18" s="35" t="s">
         <v>93</v>
       </c>
       <c r="K18" s="5" t="s">
@@ -2207,68 +2174,68 @@
       <c r="R18" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="S18" s="8"/>
-      <c r="T18" s="28" t="s">
+      <c r="S18" s="7"/>
+      <c r="T18" s="26" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="46" t="s">
+      <c r="A19" s="42"/>
+      <c r="B19" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="32" t="s">
+      <c r="K19" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="L19" s="33" t="s">
+      <c r="L19" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="31" t="s">
+      <c r="M19" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="N19" s="30" t="s">
+      <c r="N19" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="O19" s="31" t="s">
+      <c r="O19" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="P19" s="34" t="s">
+      <c r="P19" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="Q19" s="35" t="s">
+      <c r="Q19" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="R19" s="34" t="s">
+      <c r="R19" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="S19" s="35" t="s">
+      <c r="S19" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="T19" s="36"/>
+      <c r="T19" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2277,28 +2244,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>